--- a/bom/ovrBeaconGateway-btle_pricing.xlsx
+++ b/bom/ovrBeaconGateway-btle_pricing.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-4520" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ovrBeaconGateway-wifi_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -345,13 +345,13 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -380,12 +380,12 @@
     <tableColumn id="5" name="Supplier Part Num."/>
     <tableColumn id="6" name="Quantity"/>
     <tableColumn id="7" name="Price (qty 1)" totalsRowLabel="Total:" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="9" name="Subtotal (qty 1)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="9" name="Subtotal (qty 1)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
       <totalsRowFormula>SUM(H2:H25)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Price (qty 1000)" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="10" name="Subtotal (qty 1000)" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="8" name="Price (qty 1000)" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="10" name="Subtotal (qty 1000)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>F2*I2</calculatedColumnFormula>
       <totalsRowFormula>SUM(J2:J25)</totalsRowFormula>
     </tableColumn>
